--- a/medicine/Mort/Cimetière_Saint-Louis_(Trois-Rivières)/Cimetière_Saint-Louis_(Trois-Rivières).xlsx
+++ b/medicine/Mort/Cimetière_Saint-Louis_(Trois-Rivières)/Cimetière_Saint-Louis_(Trois-Rivières).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Louis_(Trois-Rivi%C3%A8res)</t>
+          <t>Cimetière_Saint-Louis_(Trois-Rivières)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Saint-Louis est un cimetière jardin de confession catholique situé au 1294 rue Laflèche à l'intersection du boulevard des Forges à Trois-Rivières (Québec) au Canada. Il est le plus vieux des cimetières catholiques toujours existant sur le territoire de la ville de Trois-Rivières.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Louis_(Trois-Rivi%C3%A8res)</t>
+          <t>Cimetière_Saint-Louis_(Trois-Rivières)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 5 août 1862, la fabrique de Trois-Rivières acquiert la parcelle de terre sur les hauteurs du coteau Saint-Louis et le cimetière ouvre trois ans plus tard en 1865[1]. C'est Mgr Thomas Cooke premier évêque trifluvien à la tête de la Cathédrale de l'Assomption de Marie qui consacre le lieu à la demande des marguilliers de la paroisse de l'Immaculée-Conception de la Sainte-Vierge. Le premier ensevelissant se produisit en 1866. On y déplaça par la suite les dépouilles et les ossements de l'ancien cimetière des pauvres (1834-1870)[2] positionné face au couvent des Ursulines[3] vers ce nouveau cimetière situé alors plus au nord de la ville pour des raisons sanitaires à la demande des sœurs Ursulines elles-mêmes. L'ancien charnier érigé en 1867 témoigne quant à lui de l'architecture religieuse du XIXe siècle et est répertorié au patrimoine culturel du Québec.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 5 août 1862, la fabrique de Trois-Rivières acquiert la parcelle de terre sur les hauteurs du coteau Saint-Louis et le cimetière ouvre trois ans plus tard en 1865. C'est Mgr Thomas Cooke premier évêque trifluvien à la tête de la Cathédrale de l'Assomption de Marie qui consacre le lieu à la demande des marguilliers de la paroisse de l'Immaculée-Conception de la Sainte-Vierge. Le premier ensevelissant se produisit en 1866. On y déplaça par la suite les dépouilles et les ossements de l'ancien cimetière des pauvres (1834-1870) positionné face au couvent des Ursulines vers ce nouveau cimetière situé alors plus au nord de la ville pour des raisons sanitaires à la demande des sœurs Ursulines elles-mêmes. L'ancien charnier érigé en 1867 témoigne quant à lui de l'architecture religieuse du XIXe siècle et est répertorié au patrimoine culturel du Québec.
 </t>
         </is>
       </c>
